--- a/PathPlanner/UserStudyData/DataCombinedReal.xlsx
+++ b/PathPlanner/UserStudyData/DataCombinedReal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -2255,7 +2255,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="884">
+  <cellXfs count="885">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3150,6 +3150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -3496,11 +3497,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,7 +3660,14 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G6" s="21"/>
+      <c r="D6" s="884">
+        <f>D2/D3</f>
+        <v>0.9612594790636334</v>
+      </c>
+      <c r="G6" s="884">
+        <f>G2/G3</f>
+        <v>0.78830874006810447</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="25"/>
       <c r="J6" s="23"/>
@@ -3671,7 +3679,14 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G7" s="21"/>
+      <c r="D7" s="884">
+        <f>D4/D3</f>
+        <v>0.96356742499175729</v>
+      </c>
+      <c r="G7" s="884">
+        <f>G4/G3</f>
+        <v>0.9653802497162316</v>
+      </c>
       <c r="H7" s="21"/>
       <c r="I7" s="25"/>
       <c r="J7" s="23"/>
@@ -3683,7 +3698,14 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G8" s="21"/>
+      <c r="D8" s="884">
+        <f>D5/D3</f>
+        <v>0.9947246950214309</v>
+      </c>
+      <c r="G8" s="884">
+        <f>G5/G3</f>
+        <v>0.9858115777525539</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="25"/>
       <c r="J8" s="23"/>
@@ -7115,7 +7137,7 @@
         <v>2992</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" ref="G41:G46" si="72">F41/$D$2</f>
+        <f t="shared" ref="G41:G43" si="72">F41/$D$2</f>
         <v>0.51311953352769679</v>
       </c>
       <c r="H41" s="20">
@@ -24429,9 +24451,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
